--- a/observations-summary.xlsx
+++ b/observations-summary.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="32">
   <si>
     <t>Profile</t>
   </si>
@@ -104,7 +104,10 @@
     <t>Observation Category Codes#vital-signs</t>
   </si>
   <si>
-    <t>http://testSK.org/ValueSet/vital-sign-codes-vs (required)</t>
+    <t>SNOMED CT#61746007</t>
+  </si>
+  <si>
+    <t>Quantity, CodeableConcept, string, boolean, integer, Range, Ratio, SampledData, time, dateTime, Period, Attachment, Reference</t>
   </si>
 </sst>
 </file>
@@ -398,16 +401,16 @@
         <v>13</v>
       </c>
       <c r="E5" t="s" s="2">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="G5" t="s" s="2">
         <v>15</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="I5" t="s" s="2">
         <v>17</v>

--- a/observations-summary.xlsx
+++ b/observations-summary.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="33">
   <si>
     <t>Profile</t>
   </si>
@@ -62,37 +62,40 @@
     <t>dateTimeĵ, Periodĵ, Timingĵ, instantĵ</t>
   </si>
   <si>
+    <t>integerĵ</t>
+  </si>
+  <si>
+    <t>optional</t>
+  </si>
+  <si>
+    <t>functional-score-observation-profile</t>
+  </si>
+  <si>
+    <t>Stroke Functional Score Observation Profile (R5, Timing Ext)</t>
+  </si>
+  <si>
+    <t>Observation Category Codes#exam</t>
+  </si>
+  <si>
+    <t>http://testSK.org/ValueSet/functional-score-codes-vs (required)</t>
+  </si>
+  <si>
+    <t>Quantityĵ, CodeableConceptĵ, stringĵ, booleanĵ, integerĵ, Rangeĵ, Ratioĵ, SampledDataĵ, timeĵ, dateTimeĵ, Periodĵ, Attachmentĵ, Referenceĵ</t>
+  </si>
+  <si>
+    <t>timing-metric-observation-profile</t>
+  </si>
+  <si>
+    <t>Stroke Timing Metric Observation Profile (R5)</t>
+  </si>
+  <si>
+    <t>Observation Category Codes#procedure</t>
+  </si>
+  <si>
+    <t>http://testSK.org/ValueSet/timing-metric-codes-vs (required)</t>
+  </si>
+  <si>
     <t>Quantityĵ</t>
-  </si>
-  <si>
-    <t>optional</t>
-  </si>
-  <si>
-    <t>functional-score-observation-profile</t>
-  </si>
-  <si>
-    <t>Stroke Functional Score Observation Profile (R5, Timing Ext)</t>
-  </si>
-  <si>
-    <t>Observation Category Codes#exam</t>
-  </si>
-  <si>
-    <t>http://testSK.org/ValueSet/functional-score-codes-vs (required)</t>
-  </si>
-  <si>
-    <t>Quantityĵ, CodeableConceptĵ, stringĵ, booleanĵ, integerĵ, Rangeĵ, Ratioĵ, SampledDataĵ, timeĵ, dateTimeĵ, Periodĵ, Attachmentĵ, Referenceĵ</t>
-  </si>
-  <si>
-    <t>timing-metric-observation-profile</t>
-  </si>
-  <si>
-    <t>Stroke Timing Metric Observation Profile (R5)</t>
-  </si>
-  <si>
-    <t>Observation Category Codes#procedure</t>
-  </si>
-  <si>
-    <t>http://testSK.org/ValueSet/timing-metric-codes-vs (required)</t>
   </si>
   <si>
     <t>vital-sign-observation-profile</t>
@@ -375,7 +378,7 @@
         <v>15</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="I4" t="s" s="2">
         <v>17</v>
@@ -389,19 +392,19 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C5" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D5" t="s" s="2">
         <v>13</v>
       </c>
       <c r="E5" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F5" t="s" s="2">
         <v>13</v>
@@ -410,7 +413,7 @@
         <v>15</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I5" t="s" s="2">
         <v>17</v>
